--- a/easyexcel-test/src/test/resources/demo/demo2.xlsx
+++ b/easyexcel-test/src/test/resources/demo/demo2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15780"/>
+    <workbookView windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>字符串标题</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>字符串6</t>
-  </si>
-  <si>
-    <t>字符串7</t>
   </si>
   <si>
     <t>字符串8</t>
@@ -91,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,11 +117,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,23 +146,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,9 +186,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +212,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,59 +241,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,37 +255,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,145 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,8 +461,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,21 +533,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -525,177 +546,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1057,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1158,20 +1155,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43838.0423726852</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1182,7 +1172,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
@@ -1219,7 +1209,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1230,7 +1220,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1241,7 +1231,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1252,7 +1242,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1263,7 +1253,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1274,7 +1264,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1285,7 +1275,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1296,7 +1286,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1307,7 +1297,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1318,7 +1308,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
